--- a/doc/design/数据校验.xlsx
+++ b/doc/design/数据校验.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,11 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.第一次：当管理员点击开始流标时自动触发，系统启动后台任务变更完账户及CashStream后开始校验，校验成功后，将融资款返回Lender；否则停留在流标的验证失败状态，等待人工处理。
-2.验证失败在修复后可以由管理员点击再次校验；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>一次还款校验</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -79,11 +74,6 @@
   <si>
     <t>Product增加一个是否已校验的字段
 Payback增加一个是否已校验的字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.第一次：当管理员点击还款时自动触发，系统启动后台任务变更完账户及CashStream后开始校验，校验成功后，将还款返回Lender；否则停留在Payback还款中的验证失败状态，等待人工处理。
-2.验证失败在修复后可以由管理员点击再次校验；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -132,47 +122,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>涉及该Product
-Borrower获得的资金流=所有Lender的支付资金流之和
-同时调取第三方数据进行验证？
-同时验证所涉账户？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及该Product
-Lender之前冻结的资金流=Lender解冻的资金流
-同时调取第三方数据进行验证？
-同时验证所涉账户？</t>
+    <t xml:space="preserve">涉及该Product
+Product实际融资额=所有Lender的支付资金流之和,第三方冻结总额=Product实际融资额度
+同时调取第三方数据进行验证？(submit额度、该submit对应的cashstream冻结额度、第三方冻结额度；)
+所有相关账户的浅层校验
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">涉及该Product
+Product实际融资额=所有Lender的支付资金流之和,第三方冻结总额=Product实际融资额度
+同时调取第三方数据进行验证？(submit额度、该submit对应的cashstream冻结额度、第三方冻结额度；)
+所有相关账户的浅层校验
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.第一次：当管理员点击开始流标时自动触发，系统启动后台任务变更完账户及CashStream后开始校验，校验成功后，将融资款返回Lender；否则停留在流标的验证失败状态，等待人工处理。
+2.验证失败在修复后可以由管理员点击校验并执行；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.第一次：当管理员点击还款时自动触发，系统启动后台任务变更完账户及CashStream后开始校验，校验成功后，将还款返回Lender；否则停留在Payback还款中的验证失败状态，等待人工处理。
+2.验证失败在修复后可以由管理员点击再次校验并执行；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>涉及该Product的某次Payback
-Borrower还款的资金流=所有Lender的获取资金流之和
-同时调取第三方数据进行验证？
-同时验证所涉账户？</t>
+payback应还额度=所有Lender的获取资金流之和（本金利息分别校验）
+同时调取第三方数据进行验证
+所有相关账户的浅层校验</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一、同上
 二、
-涉及该Product
-Borrower还款的资金流=所有Lender的获取资金流之和
-同时调取第三方数据进行验证？
-同时验证所涉账户？</t>
+状态为已还款的所有payback金额之和=所有Lender的获取资金流之和（本息分别验证）
+同时调取第三方数据进行验证
+所有相关账户的浅层校验</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一个个账户挨个验证：
 账户金额=资金流之和
-同时调取第三方数据进行验证？</t>
+同时调取第三方数据进行验证（总额）
+可用金额=所有现金流之和
+冻结金额=冻结+解冻
+已投资金额=购买+回款（本金）
+利息=回款（利息）
+总金额=可用金额+冻结金额+已投资金额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,11 +263,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -335,6 +346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -369,6 +381,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,14 +557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.75" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
@@ -567,13 +580,13 @@
     <col min="12" max="12" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="33.75" customHeight="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -597,13 +610,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="81">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -617,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="67.5">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -637,37 +650,37 @@
         <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="67.5">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="81">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
@@ -676,19 +689,19 @@
         <v>6</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="40.5">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -697,23 +710,23 @@
         <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1"/>
-    <row r="8" spans="1:12" s="3" customFormat="1"/>
-    <row r="9" spans="1:12" s="3" customFormat="1"/>
-    <row r="10" spans="1:12" s="3" customFormat="1"/>
-    <row r="11" spans="1:12" s="3" customFormat="1"/>
-    <row r="12" spans="1:12" s="3" customFormat="1"/>
-    <row r="13" spans="1:12" s="3" customFormat="1"/>
-    <row r="14" spans="1:12" s="3" customFormat="1"/>
-    <row r="15" spans="1:12" s="3" customFormat="1"/>
-    <row r="16" spans="1:12" s="3" customFormat="1"/>
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K2:K6"/>
@@ -725,12 +738,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,12 +751,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
